--- a/CashFlow/CE_cashflow.xlsx
+++ b/CashFlow/CE_cashflow.xlsx
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>4035000000.0</v>
+        <v>73000000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>4046000000.0</v>
+        <v>124000000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>3040000000.0</v>
+        <v>50000000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>2034000000.0</v>
+        <v>-6000000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>1002000000.0</v>
+        <v>-45000000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>6000000.0</v>
@@ -1016,13 +1016,13 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>149000000.0</v>
+        <v>3001000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>-6000000.0</v>
+        <v>2819000000.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>723000000.0</v>
+        <v>2802000000.0</v>
       </c>
       <c r="E8" s="0" t="inlineStr">
         <is>
